--- a/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n2-c5-m29-0.9-memory-fraction.xlsx
+++ b/spark/experiments/results-sql-g2.3.csv/g2.3-3t-n2-c5-m29-0.9-memory-fraction.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="part-00000-edb582ff-7411-4fd2-a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -148,12 +148,45 @@
   </si>
   <si>
     <t>file:///opt/bitnami/spark/spark_data/spark-bench-test/kmeans-data-g2-3.parquet</t>
+  </si>
+  <si>
+    <t>percentile95-exp (ns)</t>
+  </si>
+  <si>
+    <t>deviation-exp (ns)</t>
+  </si>
+  <si>
+    <t>perc-warmup  (ns)</t>
+  </si>
+  <si>
+    <t>deviation-run (ns)</t>
+  </si>
+  <si>
+    <t>Total time (ms)</t>
+  </si>
+  <si>
+    <t>Totaltime (minutes)</t>
+  </si>
+  <si>
+    <t>Total time (seconds)</t>
+  </si>
+  <si>
+    <t>percentile95-exp (s)</t>
+  </si>
+  <si>
+    <t>percentile95-warmup (s)</t>
+  </si>
+  <si>
+    <t>too high deviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,8 +664,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -906,11 +941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280190512"/>
-        <c:axId val="487234256"/>
+        <c:axId val="1566782928"/>
+        <c:axId val="1566784016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280190512"/>
+        <c:axId val="1566782928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,12 +1001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487234256"/>
+        <c:crossAx val="1566784016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487234256"/>
+        <c:axId val="1566784016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280190512"/>
+        <c:crossAx val="1566782928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1931,13 +1966,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4977,6 +5015,159 @@
       </c>
       <c r="Z41" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1">
+        <f>PERCENTILE((C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C5,C4),0.95)</f>
+        <v>18976185391.899998</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="H42">
+        <f>AVERAGE(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
+        <v>5415316565.6000004</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(K41,K40,K37,K36,K33,K32,K29,K28,K25,K24,K21,K20,K17,K16,K13,K12,K9,K8,K5,K4)</f>
+        <v>179753347.09999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1">
+        <f>AVEDEV(C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8,C5,C4)</f>
+        <v>5248578063.619998</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="H43">
+        <f>AVEDEV(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
+        <v>5267499144.0600014</v>
+      </c>
+      <c r="K43">
+        <f>AVEDEV(K41,K40,K37,K36,K33,K32,K29,K28,K25,K24,K21,K20,K17,K16,K13,K12,K9,K8,K5,K4)</f>
+        <v>75199367.849999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1">
+        <f>PERCENTILE((C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6),0.95)</f>
+        <v>25102684512.249996</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="H44">
+        <f>AVERAGE(H39,H38,H35,H34,H31,H30,H27,H26,H23,H22,H19,H18,H15,H14,H11,H10,H7,H6,H3,H2)</f>
+        <v>12122182693.549999</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE(K39,K38,K35,K34,K31,K30,K27,K26,K23,K22,K19,K18,K15,K14,K11,K10,K7,K6,K3,K2)</f>
+        <v>74146323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1">
+        <f>AVEDEV(C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6,C3,C2)</f>
+        <v>10330392325.959999</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="H45">
+        <f>AVEDEV(H39,H38,H35,H34,H31,H30,H27,H26,H23,H22,H19,H18,H15,H14,H11,H10,H7,H6,H3,H2)</f>
+        <v>10331632949.459999</v>
+      </c>
+      <c r="K45">
+        <f>AVEDEV(K39,K38,K35,K34,K31,K30,K27,K26,K23,K22,K19,K18,K15,K14,K11,K10,K7,K6,K3,K2)</f>
+        <v>49274383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <f>B41-B2</f>
+        <v>780358</v>
+      </c>
+      <c r="C46" s="1">
+        <f>SUM(C2:C40)/1000000</f>
+        <v>336009.951267</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="H46">
+        <f>SUM(H2:H41)</f>
+        <v>350749985183</v>
+      </c>
+      <c r="K46">
+        <f>SUM(K2:K41)</f>
+        <v>5077993402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <f>B46/1000/60</f>
+        <v>13.005966666666666</v>
+      </c>
+      <c r="C47">
+        <f>C46/1000/60</f>
+        <v>5.6001658544500001</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="H47">
+        <f>H46/1000/60</f>
+        <v>5845833.0863833334</v>
+      </c>
+      <c r="K47">
+        <f>K46/1000/60</f>
+        <v>84633.223366666658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <f>B47*60</f>
+        <v>780.35799999999995</v>
+      </c>
+      <c r="C48">
+        <f>C47*60</f>
+        <v>336.00995126700002</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <f>C42/1000/1000/1000</f>
+        <v>18.9761853919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <f>C44/1000/1000/1000</f>
+        <v>25.102684512249994</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
